--- a/biology/Médecine/Centre_médical_international_(Viêt_Nam)/Centre_médical_international_(Viêt_Nam).xlsx
+++ b/biology/Médecine/Centre_médical_international_(Viêt_Nam)/Centre_médical_international_(Viêt_Nam).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_m%C3%A9dical_international_(Vi%C3%AAt_Nam)</t>
+          <t>Centre_médical_international_(Viêt_Nam)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Centre médical international (CMI) est créé en 1993 par le professeur Alain Carpentier à Hô Chi Minh-Ville au Viêt Nam[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Centre médical international (CMI) est créé en 1993 par le professeur Alain Carpentier à Hô Chi Minh-Ville au Viêt Nam.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_m%C3%A9dical_international_(Vi%C3%AAt_Nam)</t>
+          <t>Centre_médical_international_(Viêt_Nam)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le CMI offre des soins médicaux et paramédicaux[2] tel que des consultations de médecine générale, des analyses médicales ou encore des bilans de santé entre autres[1].
-Chaque année, tous les bénéfices du CMI sont reversés à la Fondation Alain Carpentier[3] pour financer les opérations cardiaques d’enfants vietnamiens indigents, à l'Institut du cœur[4] d’Hô Chi Minh-Ville.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CMI offre des soins médicaux et paramédicaux tel que des consultations de médecine générale, des analyses médicales ou encore des bilans de santé entre autres.
+Chaque année, tous les bénéfices du CMI sont reversés à la Fondation Alain Carpentier pour financer les opérations cardiaques d’enfants vietnamiens indigents, à l'Institut du cœur d’Hô Chi Minh-Ville.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_m%C3%A9dical_international_(Vi%C3%AAt_Nam)</t>
+          <t>Centre_médical_international_(Viêt_Nam)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>L’Institut du Cœur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Viêt Nam, de nombreux enfants souffrent de malformations du cœur. On les appelle souvent les « enfants bleus » car leur sang n’est pas correctement oxygéné[1]. En 1988, à la suite de l’invitation du Dr Duong Quang Trung, le Pr Carpentier visite le Viêt Nam, examine plusieurs malades et constate la nécessité urgente de soins.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Viêt Nam, de nombreux enfants souffrent de malformations du cœur. On les appelle souvent les « enfants bleus » car leur sang n’est pas correctement oxygéné. En 1988, à la suite de l’invitation du Dr Duong Quang Trung, le Pr Carpentier visite le Viêt Nam, examine plusieurs malades et constate la nécessité urgente de soins.
 Aucun hôpital à Saïgon n’offrait les conditions requises pour pratiquer la chirurgie cardiaque. Mais devant le nombre et la situation dramatique des enfants qu’il a examinés, le Pr Carpentier propose de créer de toutes pièces un institut du cœur destiné aux enfants du Viêt Nam, institut autonome et indépendant mais partie intégrante du système de santé publique de la région de Saïgon. Ainsi, les plus hautes autorités vietnamiennes et la Fondation Alain Carpentier signent en 1989 un accord stipulant que :
 La ville de Saïgon prendrait en charge la construction de l’Institut ;
 La Fondation Alain Carpentier financerait l’équipement et la formation du personnel médical, administratif et technique avec l’aide de l’équipe chirurgicale de l’hôpital Broussais ;
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Centre_m%C3%A9dical_international_(Vi%C3%AAt_Nam)</t>
+          <t>Centre_médical_international_(Viêt_Nam)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Quelques chiffres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 1993, plus de 4 000 000 de dollars ont été versés à la Fondation Alain Carpentier, pour financer les opérations. Plus de 4 300 enfants ont déjà pu être sauvés[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1993, plus de 4 000 000 de dollars ont été versés à la Fondation Alain Carpentier, pour financer les opérations. Plus de 4 300 enfants ont déjà pu être sauvés.
 </t>
         </is>
       </c>
